--- a/biology/Médecine/Alexandre_Kermorgant/Alexandre_Kermorgant.xlsx
+++ b/biology/Médecine/Alexandre_Kermorgant/Alexandre_Kermorgant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexandre-Marie Kermorgant (27 avril 1843, Lambézellec - 29 décembre 1920, Paris (8e)) est un médecin militaire français.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir suivi des études de médecine, il devient chirurgien de la marine en 1863, puis médecin de la marine en 1872, dont il devient médecin principal en 1886.
 À Smyrne, il fait la rencontre d’Élisabeth Marie-Anne Agathe Zirigovich, fille d'un diplomate et veuve d'Edme Jahan de Laudonière (neveu d'Henry Jahan), qu'il épouse 21 janvier 1888, en la Chancellerie du Consulat général à Smyrne (Charles Champoiseau, second époux de la mère de la mariée, fait fonction d'officier d'état civil lors du mariage).
 Il est nommé secrétaire du Conseil Supérieur de la Santé (ministère de la marine et des colonies).
 En 1902, il devient membre associé libre de l'Académie de médecine.
 Il passe inspecteur général des Colonies en 1906.
-Il était commandeur de la Légion d'honneur[2].
+Il était commandeur de la Légion d'honneur.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Considérations sur l'hygiène en Nouvelle-Calédonie et plus particulièrement à Nouméa en 1868 et commencement de 1869 (1871)
 Instructions à nos colonies au sujet des mesures à prendre en cas de peste (1900)
